--- a/data/trans_orig/P71_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P71_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>64757</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50246</v>
+        <v>51697</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82316</v>
+        <v>81507</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1332933140861529</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1034251766619131</v>
+        <v>0.1064122242812027</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1694376711331839</v>
+        <v>0.1677713012760254</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -765,19 +765,19 @@
         <v>98136</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81943</v>
+        <v>80519</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>117932</v>
+        <v>117052</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2133274496894735</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1781257545448434</v>
+        <v>0.1750305275761262</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2563584157987263</v>
+        <v>0.2544449454604943</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>165</v>
@@ -786,19 +786,19 @@
         <v>162893</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>141220</v>
+        <v>141389</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>186590</v>
+        <v>185744</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1722190768414953</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1493048376295238</v>
+        <v>0.1494836017456753</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1972723595274909</v>
+        <v>0.1963777595253947</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>421064</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>403505</v>
+        <v>404314</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>435575</v>
+        <v>434124</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8667066859138471</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8305623288668158</v>
+        <v>0.8322286987239745</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8965748233380868</v>
+        <v>0.8935877757187972</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>382</v>
@@ -836,19 +836,19 @@
         <v>361891</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>342095</v>
+        <v>342975</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>378084</v>
+        <v>379508</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7866725503105265</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7436415842012737</v>
+        <v>0.7455550545395059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8218742454551574</v>
+        <v>0.824969472423874</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>806</v>
@@ -857,19 +857,19 @@
         <v>782955</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>759258</v>
+        <v>760104</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>804628</v>
+        <v>804459</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8277809231585047</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.802727640472509</v>
+        <v>0.8036222404746047</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8506951623704762</v>
+        <v>0.8505163982543245</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>125175</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>105290</v>
+        <v>106632</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>149918</v>
+        <v>149539</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1710824113212309</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1439056402851693</v>
+        <v>0.1457395616571631</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2049003799113066</v>
+        <v>0.2043822866079547</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>118</v>
@@ -982,19 +982,19 @@
         <v>130367</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>107976</v>
+        <v>109657</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>150494</v>
+        <v>151184</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2124008427571202</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1759192559903491</v>
+        <v>0.1786587432130436</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.245192315712717</v>
+        <v>0.246316016099005</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>235</v>
@@ -1003,19 +1003,19 @@
         <v>255542</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>227183</v>
+        <v>229768</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>284771</v>
+        <v>286162</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1899315499135325</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1688536948275769</v>
+        <v>0.1707748415850799</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2116560791535372</v>
+        <v>0.2126901587082977</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>606488</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>581745</v>
+        <v>582124</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>626373</v>
+        <v>625031</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8289175886787691</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7950996200886937</v>
+        <v>0.7956177133920456</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8560943597148307</v>
+        <v>0.8542604383428372</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>463</v>
@@ -1053,19 +1053,19 @@
         <v>483413</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>463286</v>
+        <v>462596</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>505804</v>
+        <v>504123</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7875991572428798</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7548076842872828</v>
+        <v>0.7536839839009942</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8240807440096507</v>
+        <v>0.8213412567869562</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1045</v>
@@ -1074,19 +1074,19 @@
         <v>1089901</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1060672</v>
+        <v>1059281</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1118260</v>
+        <v>1115675</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8100684500864676</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7883439208464627</v>
+        <v>0.7873098412917019</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.831146305172423</v>
+        <v>0.8292251584149188</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>94931</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78502</v>
+        <v>77993</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>114857</v>
+        <v>115193</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1494663157379516</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1235997924383893</v>
+        <v>0.1227979175908974</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1808388016268198</v>
+        <v>0.1813673208751552</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>161</v>
@@ -1199,19 +1199,19 @@
         <v>173322</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>149833</v>
+        <v>153194</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>196443</v>
+        <v>197188</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2557405941322363</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2210822241021106</v>
+        <v>0.2260403059518659</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2898561498425126</v>
+        <v>0.290955523749612</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>250</v>
@@ -1220,19 +1220,19 @@
         <v>268253</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>241343</v>
+        <v>237904</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>299065</v>
+        <v>297700</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2043273589616298</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1838297537584897</v>
+        <v>0.1812100865222311</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2277964639125568</v>
+        <v>0.226756498882725</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>540203</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>520277</v>
+        <v>519941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>556632</v>
+        <v>557141</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8505336842620483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8191611983731801</v>
+        <v>0.8186326791248447</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8764002075616106</v>
+        <v>0.8772020824091026</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>485</v>
@@ -1270,19 +1270,19 @@
         <v>504405</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>481284</v>
+        <v>480539</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>527894</v>
+        <v>524533</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7442594058677637</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7101438501574874</v>
+        <v>0.709044476250388</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7789177758978897</v>
+        <v>0.7739596940481341</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1006</v>
@@ -1291,19 +1291,19 @@
         <v>1044608</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1013796</v>
+        <v>1015161</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1071518</v>
+        <v>1074957</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7956726410383702</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7722035360874432</v>
+        <v>0.7732435011172751</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8161702462415097</v>
+        <v>0.8187899134777691</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>82575</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66456</v>
+        <v>66129</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102199</v>
+        <v>98639</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1599502973433289</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1287259393344661</v>
+        <v>0.1280925964918823</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1979612238767948</v>
+        <v>0.1910651154535127</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>130</v>
@@ -1416,19 +1416,19 @@
         <v>133362</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>112771</v>
+        <v>114874</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>152269</v>
+        <v>153216</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.263864153743494</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2231224755698311</v>
+        <v>0.2272840220046992</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3012713908673881</v>
+        <v>0.3031457971303877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>204</v>
@@ -1437,19 +1437,19 @@
         <v>215938</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>188499</v>
+        <v>190819</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>242958</v>
+        <v>244466</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2113560839496044</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1844997992229731</v>
+        <v>0.1867706295070906</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2378026639250655</v>
+        <v>0.239279251362162</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>433682</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>414058</v>
+        <v>417618</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>449801</v>
+        <v>450128</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8400497026566711</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8020387761232053</v>
+        <v>0.8089348845464882</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8712740606655339</v>
+        <v>0.8719074035081181</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>362</v>
@@ -1487,19 +1487,19 @@
         <v>372058</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>353151</v>
+        <v>352204</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>392649</v>
+        <v>390546</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.736135846256506</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.698728609132612</v>
+        <v>0.6968542028696125</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.776877524430169</v>
+        <v>0.7727159779953012</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>769</v>
@@ -1508,19 +1508,19 @@
         <v>805739</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>778719</v>
+        <v>777211</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>833178</v>
+        <v>830858</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7886439160503956</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7621973360749347</v>
+        <v>0.7607207486378379</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8155002007770269</v>
+        <v>0.8132293704929092</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>87713</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72259</v>
+        <v>71625</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102544</v>
+        <v>104039</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2331854920701751</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1921007561066725</v>
+        <v>0.1904168394072722</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2726150479444733</v>
+        <v>0.2765903007026972</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>111</v>
@@ -1633,19 +1633,19 @@
         <v>114932</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>97893</v>
+        <v>97158</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132988</v>
+        <v>133298</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2895732685907625</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2466423634057516</v>
+        <v>0.2447900629999315</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.335064300620556</v>
+        <v>0.3358452984591266</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>200</v>
@@ -1654,19 +1654,19 @@
         <v>202645</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>178892</v>
+        <v>180745</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>226248</v>
+        <v>226012</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2621362797256156</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2314103264780366</v>
+        <v>0.2338066254764973</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2926678057959826</v>
+        <v>0.2923623074898654</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>288437</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>273606</v>
+        <v>272111</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>303891</v>
+        <v>304525</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7668145079298249</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7273849520555268</v>
+        <v>0.7234096992973028</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8078992438933276</v>
+        <v>0.8095831605927276</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>278</v>
@@ -1704,19 +1704,19 @@
         <v>281971</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>263915</v>
+        <v>263605</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>299010</v>
+        <v>299745</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7104267314092375</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.664935699379444</v>
+        <v>0.6641547015408733</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7533576365942484</v>
+        <v>0.7552099370000684</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>571</v>
@@ -1725,19 +1725,19 @@
         <v>570408</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>546805</v>
+        <v>547041</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>594161</v>
+        <v>592308</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7378637202743844</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7073321942040175</v>
+        <v>0.7076376925101346</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7685896735219635</v>
+        <v>0.7661933745235029</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>65703</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53404</v>
+        <v>52653</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79936</v>
+        <v>80354</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2323632209172003</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1888661862006316</v>
+        <v>0.1862094025414645</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2826974431837746</v>
+        <v>0.2841767607392587</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>147</v>
@@ -1850,19 +1850,19 @@
         <v>134875</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>118681</v>
+        <v>118718</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>151747</v>
+        <v>150124</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4061200756461707</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3573599283664299</v>
+        <v>0.3574711570105062</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4569226170786033</v>
+        <v>0.4520363625320911</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>218</v>
@@ -1871,19 +1871,19 @@
         <v>200578</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>178406</v>
+        <v>179942</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>221570</v>
+        <v>224216</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3262138459876615</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2901525317344816</v>
+        <v>0.2926511251369194</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3603536216521294</v>
+        <v>0.3646575334130366</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>217059</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>202826</v>
+        <v>202408</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>229358</v>
+        <v>230109</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7676367790827997</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7173025568162252</v>
+        <v>0.7158232392607412</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8111338137993676</v>
+        <v>0.8137905974585355</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>212</v>
@@ -1921,19 +1921,19 @@
         <v>197231</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>180359</v>
+        <v>181982</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>213425</v>
+        <v>213388</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5938799243538293</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5430773829213967</v>
+        <v>0.5479636374679089</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6426400716335702</v>
+        <v>0.642528842989494</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>433</v>
@@ -1942,19 +1942,19 @@
         <v>414290</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>393298</v>
+        <v>390652</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>436462</v>
+        <v>434926</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6737861540123385</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6396463783478706</v>
+        <v>0.6353424665869634</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7098474682655185</v>
+        <v>0.7073488748630806</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>63287</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>50756</v>
+        <v>50484</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>78016</v>
+        <v>76831</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3116949644086808</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2499754545338166</v>
+        <v>0.2486393236706062</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3842337679642749</v>
+        <v>0.3783975976969527</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>119</v>
@@ -2067,19 +2067,19 @@
         <v>137337</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>117800</v>
+        <v>117174</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>156667</v>
+        <v>156022</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4174316706545214</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3580486527128741</v>
+        <v>0.3561468984296824</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4761847842721628</v>
+        <v>0.4742239333934088</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>187</v>
@@ -2088,19 +2088,19 @@
         <v>200625</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>178283</v>
+        <v>178735</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>222594</v>
+        <v>224609</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3770799612874075</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3350882168516956</v>
+        <v>0.3359369930222968</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4183712342693308</v>
+        <v>0.4221589684394127</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>139755</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>125026</v>
+        <v>126211</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>152286</v>
+        <v>152558</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6883050355913192</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6157662320357251</v>
+        <v>0.6216024023030473</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7500245454661835</v>
+        <v>0.7513606763293937</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>167</v>
@@ -2138,19 +2138,19 @@
         <v>191668</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>172338</v>
+        <v>172983</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>211205</v>
+        <v>211831</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5825683293454786</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5238152157278372</v>
+        <v>0.5257760666065912</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.641951347287126</v>
+        <v>0.6438531015703176</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>313</v>
@@ -2159,19 +2159,19 @@
         <v>331423</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>309454</v>
+        <v>307439</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>353765</v>
+        <v>353313</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6229200387125925</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5816287657306692</v>
+        <v>0.5778410315605873</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6649117831483042</v>
+        <v>0.6640630069777028</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>584141</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>536762</v>
+        <v>540265</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>624587</v>
+        <v>629286</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1808023121121876</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1661375860688604</v>
+        <v>0.1672216755585526</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1933209398755536</v>
+        <v>0.1947754577590402</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>885</v>
@@ -2284,19 +2284,19 @@
         <v>922333</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>870066</v>
+        <v>874633</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>976568</v>
+        <v>972911</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2782328227919453</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2624656905835934</v>
+        <v>0.26384362051667</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2945932591776289</v>
+        <v>0.2934901523510872</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1459</v>
@@ -2305,19 +2305,19 @@
         <v>1506475</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1439705</v>
+        <v>1436929</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1567173</v>
+        <v>1571189</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2301437521271422</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2199434528498186</v>
+        <v>0.2195193612301093</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2394166689381697</v>
+        <v>0.2400301997662136</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2646688</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2606242</v>
+        <v>2601543</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2694067</v>
+        <v>2690564</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8191976878878124</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8066790601244465</v>
+        <v>0.8052245422409599</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8338624139311396</v>
+        <v>0.8327783244414475</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2349</v>
@@ -2355,19 +2355,19 @@
         <v>2392636</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2338401</v>
+        <v>2342058</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2444903</v>
+        <v>2440336</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7217671772080547</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7054067408223731</v>
+        <v>0.7065098476489129</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7375343094164073</v>
+        <v>0.7361563794833301</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4943</v>
@@ -2376,19 +2376,19 @@
         <v>5039323</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4978625</v>
+        <v>4974609</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5106093</v>
+        <v>5108869</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7698562478728578</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7605833310618303</v>
+        <v>0.7599698002337864</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7800565471501815</v>
+        <v>0.7804806387698907</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>129964</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>112373</v>
+        <v>110174</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150994</v>
+        <v>149323</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.288007206836056</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2490245730252566</v>
+        <v>0.2441507207716073</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3346106898221408</v>
+        <v>0.330907361676171</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -2744,19 +2744,19 @@
         <v>110343</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93554</v>
+        <v>91630</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>129693</v>
+        <v>128740</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2570305801890096</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2179220012575142</v>
+        <v>0.2134412817148856</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3021035615186127</v>
+        <v>0.2998834383058596</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>233</v>
@@ -2765,19 +2765,19 @@
         <v>240307</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>215555</v>
+        <v>212555</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>268014</v>
+        <v>266612</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2729050298114437</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2447951320871151</v>
+        <v>0.2413878247871248</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3043700582503875</v>
+        <v>0.3027777090800498</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>321289</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>300259</v>
+        <v>301930</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>338880</v>
+        <v>341079</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.711992793163944</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6653893101778592</v>
+        <v>0.6690926383238289</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7509754269747432</v>
+        <v>0.7558492792283934</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>314</v>
@@ -2815,19 +2815,19 @@
         <v>318957</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>299607</v>
+        <v>300560</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>335746</v>
+        <v>337670</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7429694198109904</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6978964384813873</v>
+        <v>0.7001165616941404</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7820779987424858</v>
+        <v>0.7865587182851143</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>630</v>
@@ -2836,19 +2836,19 @@
         <v>640246</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>612539</v>
+        <v>613941</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>664998</v>
+        <v>667998</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7270949701885563</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6956299417496122</v>
+        <v>0.6972222909199498</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7552048679128848</v>
+        <v>0.7586121752128753</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>204162</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>179726</v>
+        <v>181033</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>226765</v>
+        <v>230325</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2979630258246089</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2622999919026407</v>
+        <v>0.2642079751097491</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3309507382850022</v>
+        <v>0.3361466245395952</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>190</v>
@@ -2961,19 +2961,19 @@
         <v>205798</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>181154</v>
+        <v>182499</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>227311</v>
+        <v>230534</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3372322048933246</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2968494971094323</v>
+        <v>0.2990542115792974</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3724851925827625</v>
+        <v>0.3777671703816183</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>390</v>
@@ -2982,19 +2982,19 @@
         <v>409960</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>374696</v>
+        <v>374713</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>442760</v>
+        <v>444411</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3164618135500746</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.289240027403573</v>
+        <v>0.2892530511738516</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3417812468150516</v>
+        <v>0.343055561508141</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>481031</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>458428</v>
+        <v>454868</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>505467</v>
+        <v>504160</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.702036974175391</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.669049261714998</v>
+        <v>0.6638533754604049</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7377000080973592</v>
+        <v>0.735792024890251</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>381</v>
@@ -3032,19 +3032,19 @@
         <v>404457</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>382944</v>
+        <v>379721</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>429101</v>
+        <v>427756</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6627677951066754</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6275148074172374</v>
+        <v>0.6222328296183817</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7031505028905676</v>
+        <v>0.7009457884207024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>846</v>
@@ -3053,19 +3053,19 @@
         <v>885489</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>852689</v>
+        <v>851038</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>920753</v>
+        <v>920736</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6835381864499254</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6582187531849485</v>
+        <v>0.6569444384918589</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.710759972596427</v>
+        <v>0.7107469488261483</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>237662</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>214615</v>
+        <v>212059</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>265393</v>
+        <v>261941</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3500778755936814</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3161293234029829</v>
+        <v>0.3123653890434003</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.390925820784453</v>
+        <v>0.3858410041148881</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>233</v>
@@ -3178,19 +3178,19 @@
         <v>250796</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>226280</v>
+        <v>224274</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>277916</v>
+        <v>278887</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3547180088318262</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3200432820192735</v>
+        <v>0.3172064606710518</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.393076289197627</v>
+        <v>0.39444869538509</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>461</v>
@@ -3199,19 +3199,19 @@
         <v>488457</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>454194</v>
+        <v>451451</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>523772</v>
+        <v>525096</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3524450618909326</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3277225241270008</v>
+        <v>0.3257434693069495</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3779267096566915</v>
+        <v>0.3788819267816733</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>441220</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>413489</v>
+        <v>416941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>464267</v>
+        <v>466823</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6499221244063186</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.609074179215547</v>
+        <v>0.6141589958851119</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6838706765970169</v>
+        <v>0.6876346109565998</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>431</v>
@@ -3249,19 +3249,19 @@
         <v>456233</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>429113</v>
+        <v>428142</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>480749</v>
+        <v>482755</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6452819911681738</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.606923710802373</v>
+        <v>0.6055513046149099</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6799567179807265</v>
+        <v>0.6827935393289482</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>852</v>
@@ -3270,19 +3270,19 @@
         <v>897453</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>862138</v>
+        <v>860814</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>931716</v>
+        <v>934459</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6475549381090675</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6220732903433085</v>
+        <v>0.6211180732183269</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6722774758729992</v>
+        <v>0.6742565306930506</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>206356</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>181885</v>
+        <v>182822</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>230686</v>
+        <v>231225</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3357477031564249</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2959329149681008</v>
+        <v>0.2974575402923652</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3753335104530646</v>
+        <v>0.3762106096054454</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>181</v>
@@ -3395,19 +3395,19 @@
         <v>207807</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>183018</v>
+        <v>180881</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>233033</v>
+        <v>233980</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3385041004843764</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2981238024055847</v>
+        <v>0.2946436179680542</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3795953640081527</v>
+        <v>0.3811372006271255</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>364</v>
@@ -3416,19 +3416,19 @@
         <v>414164</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>380145</v>
+        <v>377267</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>451278</v>
+        <v>448356</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3371250973204899</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.309434437748455</v>
+        <v>0.3070913497870361</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3673356159639604</v>
+        <v>0.3649577993905518</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>408261</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>383931</v>
+        <v>383392</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>432732</v>
+        <v>431795</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6642522968435751</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6246664895469355</v>
+        <v>0.6237893903945545</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7040670850318993</v>
+        <v>0.702542459707635</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>356</v>
@@ -3466,19 +3466,19 @@
         <v>406092</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>380866</v>
+        <v>379919</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>430881</v>
+        <v>433018</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6614958995156236</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6204046359918474</v>
+        <v>0.6188627993728745</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7018761975944153</v>
+        <v>0.7053563820319457</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>721</v>
@@ -3487,19 +3487,19 @@
         <v>814352</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>777238</v>
+        <v>780160</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>848371</v>
+        <v>851249</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6628749026795101</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6326643840360396</v>
+        <v>0.6350422006094482</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6905655622515451</v>
+        <v>0.692908650212964</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>128258</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>109913</v>
+        <v>109743</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>149395</v>
+        <v>147669</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.301877667038099</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.258700920166525</v>
+        <v>0.2583003133607875</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3516281129030199</v>
+        <v>0.347564483566734</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>120</v>
@@ -3612,19 +3612,19 @@
         <v>129550</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>110241</v>
+        <v>109659</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>150648</v>
+        <v>148835</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2928236403473802</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2491780560522049</v>
+        <v>0.2478634054053036</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3405112458798323</v>
+        <v>0.3364125341305549</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>237</v>
@@ -3633,19 +3633,19 @@
         <v>257808</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>233473</v>
+        <v>229307</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>287577</v>
+        <v>287098</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2972590466172239</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2691999138240712</v>
+        <v>0.2643963303146127</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3315829812159983</v>
+        <v>0.3310306018505115</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>296609</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>275472</v>
+        <v>277198</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>314954</v>
+        <v>315124</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.698122332961901</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6483718870969803</v>
+        <v>0.652435516433266</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7412990798334751</v>
+        <v>0.7416996866392127</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>281</v>
@@ -3683,19 +3683,19 @@
         <v>312867</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>291769</v>
+        <v>293582</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>332176</v>
+        <v>332758</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7071763596526198</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6594887541201674</v>
+        <v>0.6635874658694449</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.750821943947795</v>
+        <v>0.752136594594696</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>553</v>
@@ -3704,19 +3704,19 @@
         <v>609476</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>579707</v>
+        <v>580186</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>633811</v>
+        <v>637977</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7027409533827761</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6684170187840019</v>
+        <v>0.6689693981494884</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7308000861759288</v>
+        <v>0.7356036696853873</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>69564</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55166</v>
+        <v>54623</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86569</v>
+        <v>85381</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2276733457119309</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1805502498956342</v>
+        <v>0.1787714589700743</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2833265548542496</v>
+        <v>0.27943916543231</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -3829,19 +3829,19 @@
         <v>94907</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79129</v>
+        <v>79631</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>112066</v>
+        <v>114089</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2688539909843947</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2241562280681771</v>
+        <v>0.2255803950930962</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3174611658586455</v>
+        <v>0.3231929671643233</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>158</v>
@@ -3850,19 +3850,19 @@
         <v>164472</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>142784</v>
+        <v>142476</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>188737</v>
+        <v>188829</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2497476197557228</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2168145880593752</v>
+        <v>0.2163478428350428</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2865936394393669</v>
+        <v>0.2867330064599905</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>235981</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>218976</v>
+        <v>220164</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>250379</v>
+        <v>250922</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7723266542880691</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7166734451457505</v>
+        <v>0.7205608345676903</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8194497501043658</v>
+        <v>0.8212285410299257</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>249</v>
@@ -3900,19 +3900,19 @@
         <v>258100</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>240941</v>
+        <v>238918</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273878</v>
+        <v>273376</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7311460090156052</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6825388341413545</v>
+        <v>0.6768070328356767</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.775843771931823</v>
+        <v>0.7744196049069039</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>463</v>
@@ -3921,19 +3921,19 @@
         <v>494080</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>469815</v>
+        <v>469723</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>515768</v>
+        <v>516076</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7502523802442772</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7134063605606332</v>
+        <v>0.7132669935400096</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.783185411940625</v>
+        <v>0.7836521571649572</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>67969</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52726</v>
+        <v>52842</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84865</v>
+        <v>83611</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2731974597498382</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2119305443720544</v>
+        <v>0.2123948558627247</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3411137193837538</v>
+        <v>0.3360713099890192</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>107</v>
@@ -4046,19 +4046,19 @@
         <v>120726</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>100798</v>
+        <v>102343</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>140238</v>
+        <v>139332</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3121044413444229</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.260585703773786</v>
+        <v>0.2645798119123768</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3625455717381659</v>
+        <v>0.3602037824283787</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>166</v>
@@ -4067,19 +4067,19 @@
         <v>188695</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>168047</v>
+        <v>164165</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>214925</v>
+        <v>212607</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2968753899376618</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2643905546422384</v>
+        <v>0.2582824537996907</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3381430809290741</v>
+        <v>0.3344972255255259</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>180820</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>163924</v>
+        <v>165178</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>196063</v>
+        <v>195947</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7268025402501618</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6588862806162463</v>
+        <v>0.6639286900109808</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7880694556279457</v>
+        <v>0.7876051441372754</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>241</v>
@@ -4117,19 +4117,19 @@
         <v>266088</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>246576</v>
+        <v>247482</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>286016</v>
+        <v>284471</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6878955586555771</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6374544282618342</v>
+        <v>0.6397962175716212</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.739414296226214</v>
+        <v>0.7354201880876232</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>403</v>
@@ -4138,19 +4138,19 @@
         <v>446908</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>420678</v>
+        <v>422996</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>467556</v>
+        <v>471438</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7031246100623382</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.661856919070926</v>
+        <v>0.6655027744744741</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7356094453577616</v>
+        <v>0.7417175462003098</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>1043935</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>990857</v>
+        <v>989983</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1097770</v>
+        <v>1098466</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3062159628094056</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2906467982394483</v>
+        <v>0.2903905478034928</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3220075191731135</v>
+        <v>0.3222115492250381</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1031</v>
@@ -4263,19 +4263,19 @@
         <v>1119928</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1059474</v>
+        <v>1063175</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1173364</v>
+        <v>1175015</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3161208563009959</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2990564639191026</v>
+        <v>0.3001012413198693</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3312041501957175</v>
+        <v>0.3316702245341578</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2009</v>
@@ -4284,19 +4284,19 @@
         <v>2163863</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2082216</v>
+        <v>2087311</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2242136</v>
+        <v>2252403</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3112635682667973</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2995189809956259</v>
+        <v>0.300251809043095</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3225228860985103</v>
+        <v>0.3239997014749658</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2365210</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2311375</v>
+        <v>2310679</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2418288</v>
+        <v>2419162</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6937840371905943</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6779924808268863</v>
+        <v>0.677788450774962</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7093532017605515</v>
+        <v>0.7096094521965074</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2253</v>
@@ -4334,19 +4334,19 @@
         <v>2422794</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2369358</v>
+        <v>2367707</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2483248</v>
+        <v>2479547</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6838791436990042</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6687958498042824</v>
+        <v>0.6683297754658422</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7009435360808974</v>
+        <v>0.6998987586801307</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4468</v>
@@ -4355,19 +4355,19 @@
         <v>4788004</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4709731</v>
+        <v>4699464</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4869651</v>
+        <v>4864556</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6887364317332028</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6774771139014897</v>
+        <v>0.6760002985250342</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.700481019004374</v>
+        <v>0.6997481909569047</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>121457</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>103092</v>
+        <v>102489</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141911</v>
+        <v>141241</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2934594364158282</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2490859021034866</v>
+        <v>0.2476299089692646</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3428782360496215</v>
+        <v>0.3412610712244262</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>114</v>
@@ -4723,19 +4723,19 @@
         <v>110461</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94395</v>
+        <v>93922</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>128988</v>
+        <v>127020</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2810879826222992</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2402073127810984</v>
+        <v>0.2390023247616391</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.328233523330548</v>
+        <v>0.3232268136009847</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>227</v>
@@ -4744,19 +4744,19 @@
         <v>231918</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>207323</v>
+        <v>207139</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>257134</v>
+        <v>259900</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2874339890678552</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2569521065789828</v>
+        <v>0.2567239216875861</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3186863389194223</v>
+        <v>0.3221148418101999</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>292424</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>271970</v>
+        <v>272640</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>310789</v>
+        <v>311392</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7065405635841718</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6571217639503785</v>
+        <v>0.6587389287755735</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7509140978965133</v>
+        <v>0.7523700910307352</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>287</v>
@@ -4794,19 +4794,19 @@
         <v>282514</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>263987</v>
+        <v>265955</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>298580</v>
+        <v>299053</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7189120173777008</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6717664766694519</v>
+        <v>0.676773186399015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7597926872189016</v>
+        <v>0.7609976752383609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>562</v>
@@ -4815,19 +4815,19 @@
         <v>574938</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>549722</v>
+        <v>546956</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>599533</v>
+        <v>599717</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7125660109321449</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.681313661080578</v>
+        <v>0.6778851581898001</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7430478934210172</v>
+        <v>0.7432760783124143</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>206092</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>183234</v>
+        <v>182601</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>226899</v>
+        <v>229281</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3490147138989502</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3103053777747007</v>
+        <v>0.3092325279370063</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3842517519930573</v>
+        <v>0.3882846897945437</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>187</v>
@@ -4940,19 +4940,19 @@
         <v>181194</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>159184</v>
+        <v>160108</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>204084</v>
+        <v>204618</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3226640332289608</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2834703847754575</v>
+        <v>0.2851153869553985</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3634269295201517</v>
+        <v>0.3643767652044438</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>383</v>
@@ -4961,19 +4961,19 @@
         <v>387286</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>358139</v>
+        <v>354468</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>421263</v>
+        <v>418450</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3361703549918589</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3108700823165357</v>
+        <v>0.3076844147955226</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3656635633006765</v>
+        <v>0.3632216362648471</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>384404</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>363597</v>
+        <v>361215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>407262</v>
+        <v>407895</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6509852861010498</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6157482480069426</v>
+        <v>0.6117153102054563</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6896946222252992</v>
+        <v>0.6907674720629935</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>390</v>
@@ -5011,19 +5011,19 @@
         <v>380361</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>357471</v>
+        <v>356937</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>402371</v>
+        <v>401447</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6773359667710392</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6365730704798485</v>
+        <v>0.6356232347955564</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7165296152245425</v>
+        <v>0.7148846130446016</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>761</v>
@@ -5032,19 +5032,19 @@
         <v>764766</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>730789</v>
+        <v>733602</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>793913</v>
+        <v>797584</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6638296450081411</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6343364366993235</v>
+        <v>0.636778363735153</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6891299176834633</v>
+        <v>0.6923155852044774</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>217274</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>191347</v>
+        <v>192843</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>241856</v>
+        <v>242164</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.326167091332187</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2872457517640987</v>
+        <v>0.2894913269511319</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3630691863850419</v>
+        <v>0.3635309011224571</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>249</v>
@@ -5157,19 +5157,19 @@
         <v>243858</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>221746</v>
+        <v>220912</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>269992</v>
+        <v>270023</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3706657710288428</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3370555229259052</v>
+        <v>0.3357864148206367</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4103886927373119</v>
+        <v>0.4104367387148945</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>453</v>
@@ -5178,19 +5178,19 @@
         <v>461133</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>428403</v>
+        <v>429263</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>495289</v>
+        <v>498069</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3482777823734045</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3235582226752471</v>
+        <v>0.3242073305818413</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3740749636632841</v>
+        <v>0.3761743340560413</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>448870</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>424288</v>
+        <v>423980</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>474797</v>
+        <v>473301</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6738329086678131</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6369308136149581</v>
+        <v>0.6364690988775428</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7127542482359014</v>
+        <v>0.710508673048868</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>413</v>
@@ -5228,19 +5228,19 @@
         <v>414035</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>387901</v>
+        <v>387870</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>436147</v>
+        <v>436981</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6293342289711572</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5896113072626883</v>
+        <v>0.5895632612851059</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6629444770740949</v>
+        <v>0.6642135851793635</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>844</v>
@@ -5249,19 +5249,19 @@
         <v>862904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>828748</v>
+        <v>825968</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>895634</v>
+        <v>894774</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6517222176265954</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6259250363367158</v>
+        <v>0.6238256659439587</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6764417773247529</v>
+        <v>0.6757926694181589</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>249652</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>224227</v>
+        <v>224982</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>274719</v>
+        <v>274536</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3888150504918736</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3492173846786389</v>
+        <v>0.3503933639418262</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4278549390670074</v>
+        <v>0.427570781427164</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>252</v>
@@ -5374,19 +5374,19 @@
         <v>275494</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>249770</v>
+        <v>245788</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>301903</v>
+        <v>301549</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4251496588957967</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3854525952519363</v>
+        <v>0.3793079059483607</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4659051692001437</v>
+        <v>0.4653583786985568</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>480</v>
@@ -5395,19 +5395,19 @@
         <v>525146</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>492479</v>
+        <v>488904</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>563681</v>
+        <v>560825</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4070655548208258</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3817439797574594</v>
+        <v>0.3789732161305729</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4369360548442888</v>
+        <v>0.4347222211578318</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>392432</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>367365</v>
+        <v>367548</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>417857</v>
+        <v>417102</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6111849495081263</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5721450609329927</v>
+        <v>0.572429218572836</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6507826153213611</v>
+        <v>0.6496066360581737</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>349</v>
@@ -5445,19 +5445,19 @@
         <v>372498</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>346089</v>
+        <v>346443</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>398222</v>
+        <v>402204</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5748503411042033</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5340948307998562</v>
+        <v>0.5346416213014435</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6145474047480652</v>
+        <v>0.6206920940516395</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>699</v>
@@ -5466,19 +5466,19 @@
         <v>764930</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>726395</v>
+        <v>729251</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>797597</v>
+        <v>801172</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5929344451791742</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5630639451557113</v>
+        <v>0.5652777788421683</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6182560202425406</v>
+        <v>0.6210267838694274</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>167068</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>147020</v>
+        <v>145742</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>190913</v>
+        <v>188450</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3519116976449396</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3096840470644833</v>
+        <v>0.306990459222526</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4021387047180372</v>
+        <v>0.3969508459529675</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>165</v>
@@ -5591,19 +5591,19 @@
         <v>188177</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>165833</v>
+        <v>166445</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>213233</v>
+        <v>211684</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3804992064561454</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3353197484776904</v>
+        <v>0.3365562730629275</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4311621675201536</v>
+        <v>0.428030387888208</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>314</v>
@@ -5612,19 +5612,19 @@
         <v>355245</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>324435</v>
+        <v>320655</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>386405</v>
+        <v>384417</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3664975814700555</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3347119127407813</v>
+        <v>0.3308123300145667</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3986450505289819</v>
+        <v>0.3965943428866429</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>307675</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>283830</v>
+        <v>286293</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>327723</v>
+        <v>329001</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6480883023550604</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5978612952819629</v>
+        <v>0.603049154047033</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6903159529355168</v>
+        <v>0.6930095407774743</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>266</v>
@@ -5662,19 +5662,19 @@
         <v>306376</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>281320</v>
+        <v>282869</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>328720</v>
+        <v>328108</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6195007935438546</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5688378324798464</v>
+        <v>0.5719696121117919</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6646802515223096</v>
+        <v>0.6634437269370724</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>538</v>
@@ -5683,19 +5683,19 @@
         <v>614051</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>582891</v>
+        <v>584879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>644861</v>
+        <v>648641</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6335024185299445</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6013549494710181</v>
+        <v>0.6034056571133571</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6652880872592187</v>
+        <v>0.6691876699854332</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>94721</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>78494</v>
+        <v>79239</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>111965</v>
+        <v>114054</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2910275664676814</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2411717558511686</v>
+        <v>0.2434588937303174</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3440098972021478</v>
+        <v>0.3504276623128018</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>112</v>
@@ -5808,19 +5808,19 @@
         <v>118357</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>101408</v>
+        <v>101761</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>136638</v>
+        <v>136497</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.316355038590566</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2710526749100918</v>
+        <v>0.2719961463641595</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3652167563216109</v>
+        <v>0.3648407710802659</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>204</v>
@@ -5829,19 +5829,19 @@
         <v>213078</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>187807</v>
+        <v>192118</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>236975</v>
+        <v>238424</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3045720700259854</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2684491648052554</v>
+        <v>0.2746112579309939</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.338729995376701</v>
+        <v>0.340800605043817</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>230750</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>213506</v>
+        <v>211417</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>246977</v>
+        <v>246232</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7089724335323186</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6559901027978522</v>
+        <v>0.6495723376871981</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7588282441488314</v>
+        <v>0.7565411062696825</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>239</v>
@@ -5879,19 +5879,19 @@
         <v>255771</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>237490</v>
+        <v>237631</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272720</v>
+        <v>272367</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.683644961409434</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6347832436783896</v>
+        <v>0.6351592289197342</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7289473250899081</v>
+        <v>0.7280038536358405</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>464</v>
@@ -5900,19 +5900,19 @@
         <v>486521</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>462624</v>
+        <v>461175</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>511792</v>
+        <v>507481</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6954279299740147</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6612700046232991</v>
+        <v>0.6591993949561831</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7315508351947446</v>
+        <v>0.7253887420690063</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>71733</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>59015</v>
+        <v>59467</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85653</v>
+        <v>84305</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2819003813645371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.23192162514197</v>
+        <v>0.2336978396205038</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3366034355131831</v>
+        <v>0.3313074254799246</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>109</v>
@@ -6025,19 +6025,19 @@
         <v>142020</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>121132</v>
+        <v>120302</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>166978</v>
+        <v>162683</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3571073180193568</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3045834195793645</v>
+        <v>0.3024961908846503</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4198623312938471</v>
+        <v>0.4090642111228929</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>193</v>
@@ -6046,19 +6046,19 @@
         <v>213753</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>187144</v>
+        <v>190253</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>239863</v>
+        <v>240198</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3277626600887572</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2869603466844207</v>
+        <v>0.2917275126845655</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3677989515835507</v>
+        <v>0.3683119663022173</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>182730</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>168810</v>
+        <v>170158</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>195448</v>
+        <v>194996</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7180996186354629</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6633965644868172</v>
+        <v>0.6686925745200754</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7680783748580304</v>
+        <v>0.7663021603794963</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>190</v>
@@ -6096,19 +6096,19 @@
         <v>255676</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>230718</v>
+        <v>235013</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>276564</v>
+        <v>277394</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6428926819806432</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5801376687061529</v>
+        <v>0.5909357888771075</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6954165804206356</v>
+        <v>0.6975038091153498</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>405</v>
@@ -6117,19 +6117,19 @@
         <v>438406</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>412296</v>
+        <v>411961</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>465015</v>
+        <v>461906</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6722373399112429</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6322010484164495</v>
+        <v>0.6316880336977825</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7130396533155795</v>
+        <v>0.7082724873154344</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>1127997</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1073090</v>
+        <v>1075168</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1185169</v>
+        <v>1184613</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3349874218795469</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3186814587654283</v>
+        <v>0.3192984871535899</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3519660070048566</v>
+        <v>0.3518009977240096</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1188</v>
@@ -6242,19 +6242,19 @@
         <v>1259561</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1203794</v>
+        <v>1208388</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1317053</v>
+        <v>1322874</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3571405994941168</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3413284128898709</v>
+        <v>0.342630972257788</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3734421093541375</v>
+        <v>0.3750928488997676</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2254</v>
@@ -6263,19 +6263,19 @@
         <v>2387558</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2304390</v>
+        <v>2304920</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2470329</v>
+        <v>2473364</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3463202927758023</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.334256535229414</v>
+        <v>0.3343335167394599</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3583264067718812</v>
+        <v>0.3587666103649736</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2239285</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2182113</v>
+        <v>2182669</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2294192</v>
+        <v>2292114</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6650125781204531</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6480339929951434</v>
+        <v>0.6481990022759904</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6813185412345717</v>
+        <v>0.6807015128464101</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2134</v>
@@ -6313,19 +6313,19 @@
         <v>2267231</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2209739</v>
+        <v>2203918</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2322998</v>
+        <v>2318404</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6428594005058832</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6265578906458625</v>
+        <v>0.6249071511002322</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6586715871101291</v>
+        <v>0.6573690277422115</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4273</v>
@@ -6334,19 +6334,19 @@
         <v>4506517</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4423746</v>
+        <v>4420711</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4589685</v>
+        <v>4589155</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6536797072241977</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6416735932281185</v>
+        <v>0.6412333896350264</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6657434647705852</v>
+        <v>0.6656664832605401</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>63250</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>41914</v>
+        <v>43262</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>91953</v>
+        <v>90864</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1619644515091259</v>
+        <v>0.161964451509126</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1073280490332711</v>
+        <v>0.1107801774878976</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2354635163205616</v>
+        <v>0.2326753708328452</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -6702,19 +6702,19 @@
         <v>66314</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46957</v>
+        <v>46933</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89434</v>
+        <v>86635</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1844268579447251</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1305929014998271</v>
+        <v>0.1305259718281177</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2487275248929036</v>
+        <v>0.2409421857496455</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -6723,19 +6723,19 @@
         <v>129564</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101438</v>
+        <v>100091</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>164687</v>
+        <v>159135</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1727322119980008</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.135234336421529</v>
+        <v>0.1334396645695554</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2195573638905322</v>
+        <v>0.2121549057514145</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>327269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>298566</v>
+        <v>299655</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>348605</v>
+        <v>347257</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8380355484908739</v>
+        <v>0.8380355484908741</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7645364836794384</v>
+        <v>0.7673246291671544</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8926719509667287</v>
+        <v>0.8892198225121025</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>167</v>
@@ -6773,19 +6773,19 @@
         <v>293254</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>270134</v>
+        <v>272933</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>312611</v>
+        <v>312635</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8155731420552751</v>
+        <v>0.8155731420552748</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7512724751070965</v>
+        <v>0.7590578142503543</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8694070985001728</v>
+        <v>0.8694740281718822</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>307</v>
@@ -6794,19 +6794,19 @@
         <v>620523</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>585400</v>
+        <v>590952</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>648649</v>
+        <v>649996</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8272677880019992</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7804426361094678</v>
+        <v>0.7878450942485854</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8647656635784711</v>
+        <v>0.8665603354304445</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>65335</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50485</v>
+        <v>48093</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88107</v>
+        <v>87120</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1377186904962747</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1064158009312761</v>
+        <v>0.1013739656738124</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1857194772845586</v>
+        <v>0.1836377339253973</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -6919,19 +6919,19 @@
         <v>85349</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68936</v>
+        <v>69248</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>103898</v>
+        <v>103745</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1736955992567019</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1402923418614529</v>
+        <v>0.1409279462259559</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2114432697669111</v>
+        <v>0.2111329091760425</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -6940,19 +6940,19 @@
         <v>150684</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125426</v>
+        <v>126769</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>176226</v>
+        <v>178127</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1560231112303453</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1298700525433666</v>
+        <v>0.1312605388111283</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1824696995302991</v>
+        <v>0.184437439233157</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>409075</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>386303</v>
+        <v>387290</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>423925</v>
+        <v>426317</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8622813095037253</v>
+        <v>0.8622813095037252</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8142805227154416</v>
+        <v>0.8163622660746028</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8935841990687241</v>
+        <v>0.8986260343261877</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>377</v>
@@ -6990,19 +6990,19 @@
         <v>406024</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>387475</v>
+        <v>387628</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>422437</v>
+        <v>422125</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8263044007432981</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7885567302330889</v>
+        <v>0.7888670908239577</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8597076581385473</v>
+        <v>0.8590720537740442</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>633</v>
@@ -7011,19 +7011,19 @@
         <v>815099</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>789557</v>
+        <v>787656</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>840357</v>
+        <v>839014</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8439768887696547</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8175303004697008</v>
+        <v>0.8155625607668423</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8701299474566335</v>
+        <v>0.8687394611888716</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>98651</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81200</v>
+        <v>78313</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119509</v>
+        <v>118539</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1603148777966419</v>
+        <v>0.1603148777966418</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.131954907641965</v>
+        <v>0.1272637548469986</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1942101450585472</v>
+        <v>0.1926337000133721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>125</v>
@@ -7136,19 +7136,19 @@
         <v>95290</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79556</v>
+        <v>80715</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111594</v>
+        <v>111075</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1535773930509524</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1282191353339328</v>
+        <v>0.1300865450580996</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1798535760782073</v>
+        <v>0.1790169673620779</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>212</v>
@@ -7157,19 +7157,19 @@
         <v>193941</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>170105</v>
+        <v>169088</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>218148</v>
+        <v>221382</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1569322002183205</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1376448093812522</v>
+        <v>0.1368217547803673</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1765201103170217</v>
+        <v>0.1791365935079513</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>516707</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>495849</v>
+        <v>496819</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>534158</v>
+        <v>537045</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8396851222033583</v>
+        <v>0.8396851222033581</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8057898549414527</v>
+        <v>0.8073662999866279</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.868045092358035</v>
+        <v>0.8727362451530015</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>719</v>
@@ -7207,19 +7207,19 @@
         <v>525180</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>508876</v>
+        <v>509395</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>540914</v>
+        <v>539755</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8464226069490477</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8201464239217927</v>
+        <v>0.820983032637922</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8717808646660672</v>
+        <v>0.8699134549419003</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1174</v>
@@ -7228,19 +7228,19 @@
         <v>1041887</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1017680</v>
+        <v>1014446</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1065723</v>
+        <v>1066740</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8430677997816794</v>
+        <v>0.8430677997816796</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8234798896829782</v>
+        <v>0.8208634064920485</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8623551906187474</v>
+        <v>0.8631782452196326</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>97097</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79807</v>
+        <v>79678</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116630</v>
+        <v>118855</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1405170164701771</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1154950509473086</v>
+        <v>0.1153087050621872</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1687853644142593</v>
+        <v>0.1720046919931889</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>166</v>
@@ -7353,19 +7353,19 @@
         <v>111691</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96960</v>
+        <v>95642</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>129554</v>
+        <v>127944</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1523681288788535</v>
+        <v>0.1523681288788534</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1322722293767918</v>
+        <v>0.1304730002178662</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1767364502927777</v>
+        <v>0.1745395960722285</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>256</v>
@@ -7374,19 +7374,19 @@
         <v>208788</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>185058</v>
+        <v>185661</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>232023</v>
+        <v>234815</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1466175009036402</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1299534634957347</v>
+        <v>0.1303770296465785</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1629331739250466</v>
+        <v>0.1648939838558395</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>593901</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>574368</v>
+        <v>572143</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>611191</v>
+        <v>611320</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8594829835298228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8312146355857407</v>
+        <v>0.827995308006811</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8845049490526914</v>
+        <v>0.8846912949378127</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>970</v>
@@ -7424,19 +7424,19 @@
         <v>621346</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>603483</v>
+        <v>605093</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>636077</v>
+        <v>637395</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8476318711211467</v>
+        <v>0.8476318711211465</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8232635497072223</v>
+        <v>0.8254604039277711</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8677277706232082</v>
+        <v>0.8695269997821338</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1538</v>
@@ -7445,19 +7445,19 @@
         <v>1215247</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1192012</v>
+        <v>1189220</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1238977</v>
+        <v>1238374</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.85338249909636</v>
+        <v>0.8533824990963599</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8370668260749534</v>
+        <v>0.8351060161441614</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8700465365042653</v>
+        <v>0.8696229703534216</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>107129</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>90080</v>
+        <v>90481</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126909</v>
+        <v>128942</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1790342713795282</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1505416543418067</v>
+        <v>0.1512118420635188</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2120912253860535</v>
+        <v>0.2154878740990632</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>191</v>
@@ -7570,19 +7570,19 @@
         <v>121923</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>106098</v>
+        <v>107873</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>137928</v>
+        <v>136905</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2024273224512643</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1761531556216019</v>
+        <v>0.1791007997522111</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2290008430094594</v>
+        <v>0.2273027976407336</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>304</v>
@@ -7591,19 +7591,19 @@
         <v>229052</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>201166</v>
+        <v>206548</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>250726</v>
+        <v>252982</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1907690991831482</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.167544171608578</v>
+        <v>0.1720264905193968</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2088207066608</v>
+        <v>0.2106995088931039</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>491243</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>471463</v>
+        <v>469430</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>508292</v>
+        <v>507891</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8209657286204719</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7879087746139464</v>
+        <v>0.7845121259009368</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8494583456581928</v>
+        <v>0.8487881579364813</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>800</v>
@@ -7641,19 +7641,19 @@
         <v>480381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>464376</v>
+        <v>465399</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>496206</v>
+        <v>494431</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7975726775487356</v>
+        <v>0.7975726775487357</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7709991569905409</v>
+        <v>0.7726972023592663</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8238468443783983</v>
+        <v>0.8208992002477888</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1340</v>
@@ -7662,19 +7662,19 @@
         <v>971623</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>949949</v>
+        <v>947693</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>999509</v>
+        <v>994127</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8092309008168518</v>
+        <v>0.8092309008168517</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7911792933391999</v>
+        <v>0.789300491106896</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8324558283914218</v>
+        <v>0.8279735094806031</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>40673</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31666</v>
+        <v>31533</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52498</v>
+        <v>53403</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1007390803525553</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07843178294487174</v>
+        <v>0.07810260418787793</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1300282847460644</v>
+        <v>0.1322694342834955</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>99</v>
@@ -7787,19 +7787,19 @@
         <v>53231</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44295</v>
+        <v>43614</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>64355</v>
+        <v>64139</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1224782519966583</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1019183557446819</v>
+        <v>0.1003524145019883</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1480741804791243</v>
+        <v>0.1475782050590967</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>155</v>
@@ -7808,19 +7808,19 @@
         <v>93904</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>81170</v>
+        <v>79781</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>109661</v>
+        <v>107390</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1120088909656194</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0968207314399242</v>
+        <v>0.09516366042670041</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1308043292355981</v>
+        <v>0.1280955381370208</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>363071</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>351246</v>
+        <v>350341</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>372078</v>
+        <v>372211</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8992609196474449</v>
+        <v>0.8992609196474446</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8699717152539358</v>
+        <v>0.8677305657165046</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9215682170551283</v>
+        <v>0.921897395812122</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>719</v>
@@ -7858,19 +7858,19 @@
         <v>381382</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>370258</v>
+        <v>370474</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>390318</v>
+        <v>390999</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8775217480033417</v>
+        <v>0.8775217480033418</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8519258195208756</v>
+        <v>0.8524217949409028</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.898081644255318</v>
+        <v>0.8996475854980116</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1229</v>
@@ -7879,19 +7879,19 @@
         <v>744454</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>728697</v>
+        <v>730968</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>757188</v>
+        <v>758577</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8879911090343806</v>
+        <v>0.8879911090343805</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8691956707644017</v>
+        <v>0.8719044618629791</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9031792685600758</v>
+        <v>0.9048363395732988</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>26604</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19243</v>
+        <v>20040</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35424</v>
+        <v>35963</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08640980236133251</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0625018460971019</v>
+        <v>0.06508939044785025</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1150557986104043</v>
+        <v>0.1168055692788739</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>167</v>
@@ -8004,19 +8004,19 @@
         <v>89782</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>78594</v>
+        <v>77434</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102800</v>
+        <v>102526</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1968680855113649</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1723353268098906</v>
+        <v>0.1697921019116999</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2254125229356813</v>
+        <v>0.2248129011825243</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>205</v>
@@ -8025,19 +8025,19 @@
         <v>116386</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>100659</v>
+        <v>101736</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>132335</v>
+        <v>132484</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1523508120439057</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1317637853317861</v>
+        <v>0.1331732523857158</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1732276955602654</v>
+        <v>0.1734232808540909</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>281280</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>272460</v>
+        <v>271921</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>288641</v>
+        <v>287844</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9135901976386677</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8849442013895955</v>
+        <v>0.8831944307211261</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9374981539028978</v>
+        <v>0.9349106095521498</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>695</v>
@@ -8075,19 +8075,19 @@
         <v>366269</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>353251</v>
+        <v>353525</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>377457</v>
+        <v>378617</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8031319144886352</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7745874770643187</v>
+        <v>0.7751870988174756</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8276646731901093</v>
+        <v>0.8302078980883001</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1112</v>
@@ -8096,19 +8096,19 @@
         <v>647549</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>631600</v>
+        <v>631451</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>663276</v>
+        <v>662199</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8476491879560942</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8267723044397345</v>
+        <v>0.8265767191459088</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8682362146682138</v>
+        <v>0.8668267476142837</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>498739</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>454576</v>
+        <v>453404</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>543337</v>
+        <v>547477</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.143263028438821</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1305771752612658</v>
+        <v>0.1302403486750901</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1560738651865175</v>
+        <v>0.1572629658655176</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>861</v>
@@ -8221,19 +8221,19 @@
         <v>623580</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>584943</v>
+        <v>582638</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>668284</v>
+        <v>666761</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.168652987615957</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1582031961928502</v>
+        <v>0.1575799114883717</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1807435181023281</v>
+        <v>0.1803316867074464</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1316</v>
@@ -8242,19 +8242,19 @@
         <v>1122320</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1060166</v>
+        <v>1065686</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1186764</v>
+        <v>1192142</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1563402203592335</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1476821080776039</v>
+        <v>0.1484511499309641</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1653173067503195</v>
+        <v>0.1660665605953379</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2982545</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2937947</v>
+        <v>2933807</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3026708</v>
+        <v>3027880</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.856736971561179</v>
+        <v>0.8567369715611789</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8439261348134823</v>
+        <v>0.8427370341344824</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8694228247387341</v>
+        <v>0.8697596513249097</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4447</v>
@@ -8292,19 +8292,19 @@
         <v>3073836</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3029132</v>
+        <v>3030655</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3112473</v>
+        <v>3114778</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8313470123840428</v>
+        <v>0.8313470123840431</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8192564818976716</v>
+        <v>0.8196683132925536</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8417968038071498</v>
+        <v>0.8424200885116283</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7333</v>
@@ -8313,19 +8313,19 @@
         <v>6056381</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5991937</v>
+        <v>5986559</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6118535</v>
+        <v>6113015</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8436597796407665</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8346826932496804</v>
+        <v>0.8339334394046621</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.852317891922396</v>
+        <v>0.8515488500690359</v>
       </c>
     </row>
     <row r="27">
